--- a/qa/03.测试报告/测试报告模版.xlsx
+++ b/qa/03.测试报告/测试报告模版.xlsx
@@ -405,8 +405,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,12 +438,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,19 +455,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -483,17 +478,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,13 +801,12 @@
     <col min="3" max="3" width="36.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="23.875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="23.875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -832,10 +820,8 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -847,10 +833,8 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -862,10 +846,8 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,12 +861,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -896,12 +876,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2"/>
@@ -913,10 +891,8 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -930,10 +906,8 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -947,10 +921,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -963,10 +935,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -979,10 +949,8 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -995,10 +963,8 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1010,10 +976,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1027,10 +991,8 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1042,133 +1004,113 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1180,10 +1122,8 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1197,10 +1137,8 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -1214,12 +1152,10 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2"/>
@@ -1231,10 +1167,8 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1246,10 +1180,8 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -1263,10 +1195,8 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>2838</v>
@@ -1282,10 +1212,8 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>3500</v>
@@ -1301,10 +1229,8 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>9040</v>
@@ -1320,10 +1246,8 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>9533</v>
@@ -1339,10 +1263,8 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1354,12 +1276,10 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="2"/>
@@ -1371,10 +1291,8 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1386,10 +1304,8 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1401,10 +1317,8 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1418,14 +1332,12 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2"/>
@@ -1437,14 +1349,12 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>2</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2"/>
@@ -1454,37 +1364,35 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
         <v>3</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>5</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -1498,14 +1406,12 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2"/>
@@ -1517,14 +1423,12 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>2</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="2"/>
@@ -1534,43 +1438,33 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
+      <c r="A63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="9">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
